--- a/biology/Botanique/Dryopteris_marginalis/Dryopteris_marginalis.xlsx
+++ b/biology/Botanique/Dryopteris_marginalis/Dryopteris_marginalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryopteris marginalis, ou dryoptère à sores marginaux, est une espèce de fougères du genre Dryopteris appartenant à la famille des Dryopteridaceae que l'on trouve à l'est de l'Amérique du Nord et au Groenland.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Polypodium marginale L.[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Polypodium marginale L.</t>
         </is>
       </c>
     </row>
@@ -541,7 +555,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce monomorphe sempervirente mesure de 30 cm à 1 mètre de hauteur et de 10 à 25 cm de largeur. Elle est caractérisée par ses sores de forme ronde à la marge du tissu foliaire. Ils virent au violet juste avant leur maturité.
 </t>
@@ -572,7 +588,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryopteris marginalis apprécie l'ombre des terrains humides ou marécageux, les sols moyennement acides ou neutres. Elle croît également sur les pentes rocheuses non-calcaires, exposées au nord, à l'ombre de sous-bois, jusqu'à 1 500 mètres d'altitude.
 </t>
